--- a/Pll/excel_list/bio-yeast-protein-inter.map.xlsx
+++ b/Pll/excel_list/bio-yeast-protein-inter.map.xlsx
@@ -435,19 +435,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.9912</v>
+        <v>1.2491</v>
       </c>
       <c r="D2">
-        <v>2.4703</v>
+        <v>1.5679</v>
       </c>
       <c r="E2">
-        <v>1.768</v>
+        <v>1.112</v>
       </c>
       <c r="F2">
-        <v>1.7263</v>
+        <v>1.1377</v>
       </c>
       <c r="G2">
-        <v>1.7804</v>
+        <v>1.1218</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -481,19 +481,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.9144</v>
+        <v>1.1324</v>
       </c>
       <c r="D4">
-        <v>2.0798</v>
+        <v>1.3655</v>
       </c>
       <c r="E4">
-        <v>1.7388</v>
+        <v>1.1538</v>
       </c>
       <c r="F4">
-        <v>1.8694</v>
+        <v>1.0855</v>
       </c>
       <c r="G4">
-        <v>1.7537</v>
+        <v>1.0663</v>
       </c>
     </row>
   </sheetData>
